--- a/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H2">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J2">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.7869995092842</v>
+        <v>50.640898</v>
       </c>
       <c r="N2">
-        <v>46.7869995092842</v>
+        <v>151.922694</v>
       </c>
       <c r="O2">
-        <v>0.3011114297393527</v>
+        <v>0.2991745142287969</v>
       </c>
       <c r="P2">
-        <v>0.3011114297393527</v>
+        <v>0.3247737340214803</v>
       </c>
       <c r="Q2">
-        <v>819.7066973449142</v>
+        <v>1065.942186356124</v>
       </c>
       <c r="R2">
-        <v>819.7066973449142</v>
+        <v>9593.479677205116</v>
       </c>
       <c r="S2">
-        <v>0.1071135854931839</v>
+        <v>0.1151362263676111</v>
       </c>
       <c r="T2">
-        <v>0.1071135854931839</v>
+        <v>0.1249879932284426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H3">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J3">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.96655211223189</v>
+        <v>78.50335200000001</v>
       </c>
       <c r="N3">
-        <v>71.96655211223189</v>
+        <v>235.510056</v>
       </c>
       <c r="O3">
-        <v>0.4631618104859598</v>
+        <v>0.4637793389827378</v>
       </c>
       <c r="P3">
-        <v>0.4631618104859598</v>
+        <v>0.5034631645403019</v>
       </c>
       <c r="Q3">
-        <v>1260.85163335837</v>
+        <v>1652.420039375376</v>
       </c>
       <c r="R3">
-        <v>1260.85163335837</v>
+        <v>14871.78035437839</v>
       </c>
       <c r="S3">
-        <v>0.1647593458262603</v>
+        <v>0.1784837959723434</v>
       </c>
       <c r="T3">
-        <v>0.1647593458262603</v>
+        <v>0.1937559722615118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.5199672118802</v>
+        <v>21.049038</v>
       </c>
       <c r="H4">
-        <v>17.5199672118802</v>
+        <v>63.147114</v>
       </c>
       <c r="I4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J4">
-        <v>0.355727398278781</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>36.6274631403076</v>
+        <v>0.05322866666666667</v>
       </c>
       <c r="N4">
-        <v>36.6274631403076</v>
+        <v>0.159686</v>
       </c>
       <c r="O4">
-        <v>0.2357267597746876</v>
+        <v>0.0003144624428470157</v>
       </c>
       <c r="P4">
-        <v>0.2357267597746876</v>
+        <v>0.0003413697922639135</v>
       </c>
       <c r="Q4">
-        <v>641.7119532725396</v>
+        <v>1.120412227356</v>
       </c>
       <c r="R4">
-        <v>641.7119532725396</v>
+        <v>10.083710046204</v>
       </c>
       <c r="S4">
-        <v>0.08385446695933683</v>
+        <v>0.0001210197302302863</v>
       </c>
       <c r="T4">
-        <v>0.08385446695933683</v>
+        <v>0.0001313749260309792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -717,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.731137135584</v>
+        <v>21.049038</v>
       </c>
       <c r="H5">
-        <v>31.731137135584</v>
+        <v>63.147114</v>
       </c>
       <c r="I5">
-        <v>0.644272601721219</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J5">
-        <v>0.644272601721219</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>46.7869995092842</v>
+        <v>0.04512133333333334</v>
       </c>
       <c r="N5">
-        <v>46.7869995092842</v>
+        <v>0.135364</v>
       </c>
       <c r="O5">
-        <v>0.3011114297393527</v>
+        <v>0.0002665662244250807</v>
       </c>
       <c r="P5">
-        <v>0.3011114297393527</v>
+        <v>0.0002893752774821361</v>
       </c>
       <c r="Q5">
-        <v>1484.604697591598</v>
+        <v>0.9497606599440002</v>
       </c>
       <c r="R5">
-        <v>1484.604697591598</v>
+        <v>8.547845939496002</v>
       </c>
       <c r="S5">
-        <v>0.1939978442461688</v>
+        <v>0.0001025870443426004</v>
       </c>
       <c r="T5">
-        <v>0.1939978442461688</v>
+        <v>0.0001113650256582134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -779,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.731137135584</v>
+        <v>21.049038</v>
       </c>
       <c r="H6">
-        <v>31.731137135584</v>
+        <v>63.147114</v>
       </c>
       <c r="I6">
-        <v>0.644272601721219</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="J6">
-        <v>0.644272601721219</v>
+        <v>0.384846371905728</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.96655211223189</v>
+        <v>40.0261565</v>
       </c>
       <c r="N6">
-        <v>71.96655211223189</v>
+        <v>80.052313</v>
       </c>
       <c r="O6">
-        <v>0.4631618104859598</v>
+        <v>0.2364651181211933</v>
       </c>
       <c r="P6">
-        <v>0.4631618104859598</v>
+        <v>0.1711323563684718</v>
       </c>
       <c r="Q6">
-        <v>2283.580534248383</v>
+        <v>842.512089162447</v>
       </c>
       <c r="R6">
-        <v>2283.580534248383</v>
+        <v>5055.072534974682</v>
       </c>
       <c r="S6">
-        <v>0.2984024646596995</v>
+        <v>0.09100274279120063</v>
       </c>
       <c r="T6">
-        <v>0.2984024646596995</v>
+        <v>0.06585966646408446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>33.645613</v>
+      </c>
+      <c r="H7">
+        <v>100.936839</v>
+      </c>
+      <c r="I7">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="J7">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>50.640898</v>
+      </c>
+      <c r="N7">
+        <v>151.922694</v>
+      </c>
+      <c r="O7">
+        <v>0.2991745142287969</v>
+      </c>
+      <c r="P7">
+        <v>0.3247737340214803</v>
+      </c>
+      <c r="Q7">
+        <v>1703.844056080474</v>
+      </c>
+      <c r="R7">
+        <v>15334.59650472427</v>
+      </c>
+      <c r="S7">
+        <v>0.1840382878611858</v>
+      </c>
+      <c r="T7">
+        <v>0.1997857407930377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>33.645613</v>
+      </c>
+      <c r="H8">
+        <v>100.936839</v>
+      </c>
+      <c r="I8">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="J8">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>78.50335200000001</v>
+      </c>
+      <c r="N8">
+        <v>235.510056</v>
+      </c>
+      <c r="O8">
+        <v>0.4637793389827378</v>
+      </c>
+      <c r="P8">
+        <v>0.5034631645403019</v>
+      </c>
+      <c r="Q8">
+        <v>2641.293400594776</v>
+      </c>
+      <c r="R8">
+        <v>23771.64060535299</v>
+      </c>
+      <c r="S8">
+        <v>0.2852955430103944</v>
+      </c>
+      <c r="T8">
+        <v>0.3097071922787902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>33.645613</v>
+      </c>
+      <c r="H9">
+        <v>100.936839</v>
+      </c>
+      <c r="I9">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="J9">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.05322866666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.159686</v>
+      </c>
+      <c r="O9">
+        <v>0.0003144624428470157</v>
+      </c>
+      <c r="P9">
+        <v>0.0003413697922639135</v>
+      </c>
+      <c r="Q9">
+        <v>1.790911119172667</v>
+      </c>
+      <c r="R9">
+        <v>16.118200072554</v>
+      </c>
+      <c r="S9">
+        <v>0.0001934427126167294</v>
+      </c>
+      <c r="T9">
+        <v>0.0002099948662329343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>33.645613</v>
+      </c>
+      <c r="H10">
+        <v>100.936839</v>
+      </c>
+      <c r="I10">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="J10">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04512133333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.135364</v>
+      </c>
+      <c r="O10">
+        <v>0.0002665662244250807</v>
+      </c>
+      <c r="P10">
+        <v>0.0002893752774821361</v>
+      </c>
+      <c r="Q10">
+        <v>1.518134919377334</v>
+      </c>
+      <c r="R10">
+        <v>13.663214274396</v>
+      </c>
+      <c r="S10">
+        <v>0.0001639791800824803</v>
+      </c>
+      <c r="T10">
+        <v>0.0001780102518239227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>31.731137135584</v>
-      </c>
-      <c r="H7">
-        <v>31.731137135584</v>
-      </c>
-      <c r="I7">
-        <v>0.644272601721219</v>
-      </c>
-      <c r="J7">
-        <v>0.644272601721219</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>36.6274631403076</v>
-      </c>
-      <c r="N7">
-        <v>36.6274631403076</v>
-      </c>
-      <c r="O7">
-        <v>0.2357267597746876</v>
-      </c>
-      <c r="P7">
-        <v>0.2357267597746876</v>
-      </c>
-      <c r="Q7">
-        <v>1162.231055833648</v>
-      </c>
-      <c r="R7">
-        <v>1162.231055833648</v>
-      </c>
-      <c r="S7">
-        <v>0.1518722928153508</v>
-      </c>
-      <c r="T7">
-        <v>0.1518722928153508</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>33.645613</v>
+      </c>
+      <c r="H11">
+        <v>100.936839</v>
+      </c>
+      <c r="I11">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="J11">
+        <v>0.615153628094272</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>40.0261565</v>
+      </c>
+      <c r="N11">
+        <v>80.052313</v>
+      </c>
+      <c r="O11">
+        <v>0.2364651181211933</v>
+      </c>
+      <c r="P11">
+        <v>0.1711323563684718</v>
+      </c>
+      <c r="Q11">
+        <v>1346.704571476435</v>
+      </c>
+      <c r="R11">
+        <v>8080.227428858608</v>
+      </c>
+      <c r="S11">
+        <v>0.1454623753299926</v>
+      </c>
+      <c r="T11">
+        <v>0.1052726899043873</v>
       </c>
     </row>
   </sheetData>
